--- a/src/main/webapp/WEB-INF/template/scholarshipLessonList.xlsx
+++ b/src/main/webapp/WEB-INF/template/scholarshipLessonList.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>회원 아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${countList}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -533,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,7 +540,7 @@
   <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -562,7 +558,7 @@
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -570,7 +566,7 @@
     </row>
     <row r="4" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -589,8 +585,9 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>7</v>
+      <c r="B7" s="3">
+        <f>ROW()-6</f>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
